--- a/结果/苏丽娜.xlsx
+++ b/结果/苏丽娜.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>姓名</t>
   </si>
@@ -50,28 +50,73 @@
     <t>单价</t>
   </si>
   <si>
+    <t>0061 第61章 ：凭什么道歉.docx</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1248</t>
+  </si>
+  <si>
+    <t>56.16</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>0062 第62章 ：你真的有办法.docx</t>
+  </si>
+  <si>
+    <t>1302</t>
+  </si>
+  <si>
+    <t>58.59</t>
+  </si>
+  <si>
+    <t>0063 第63章 ：傅爷您的良心不会痛吗？.docx</t>
+  </si>
+  <si>
+    <t>1125</t>
+  </si>
+  <si>
+    <t>50.625</t>
+  </si>
+  <si>
     <t>0064 第64章 ：如他所愿.docx</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>1358</t>
   </si>
   <si>
     <t>61.11</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>0061 第61章 ：凭什么道歉.docx</t>
-  </si>
-  <si>
-    <t>1248</t>
-  </si>
-  <si>
-    <t>56.16</t>
+    <t>0065 第65章 ：不能对我这么无情.docx</t>
+  </si>
+  <si>
+    <t>1257</t>
+  </si>
+  <si>
+    <t>56.565</t>
+  </si>
+  <si>
+    <t>0066 第66章 ：不稀罕.docx</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>55.53</t>
+  </si>
+  <si>
+    <t>0088 第88章 ：冷墨你有本事别回来.docx</t>
+  </si>
+  <si>
+    <t>1239</t>
+  </si>
+  <si>
+    <t>55.755</t>
   </si>
   <si>
     <t>0089 第89章 ：十二年前的真相.docx</t>
@@ -83,15 +128,6 @@
     <t>55.8</t>
   </si>
   <si>
-    <t>0063 第63章 ：傅爷您的良心不会痛吗？.docx</t>
-  </si>
-  <si>
-    <t>1125</t>
-  </si>
-  <si>
-    <t>50.625</t>
-  </si>
-  <si>
     <t>0090 第90章 ：残酷的真相.docx</t>
   </si>
   <si>
@@ -99,42 +135,6 @@
   </si>
   <si>
     <t>85.995</t>
-  </si>
-  <si>
-    <t>0062 第62章 ：你真的有办法.docx</t>
-  </si>
-  <si>
-    <t>1302</t>
-  </si>
-  <si>
-    <t>58.59</t>
-  </si>
-  <si>
-    <t>0066 第66章 ：不稀罕.docx</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>55.53</t>
-  </si>
-  <si>
-    <t>0065 第65章 ：不能对我这么无情.docx</t>
-  </si>
-  <si>
-    <t>1257</t>
-  </si>
-  <si>
-    <t>56.565</t>
-  </si>
-  <si>
-    <t>0088 第88章 ：冷墨你有本事别回来.docx</t>
-  </si>
-  <si>
-    <t>1239</t>
-  </si>
-  <si>
-    <t>55.755</t>
   </si>
 </sst>
 </file>
@@ -399,204 +399,6 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>11914.0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>536.13</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
